--- a/storage/app/public/data/NguoiDung.xlsx
+++ b/storage/app/public/data/NguoiDung.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\20V\storage\app\public\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã cán bộ</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ảnh đại diện</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Tên tài khoản</t>
+  </si>
+  <si>
+    <t>Mật khẩu</t>
+  </si>
   <si>
     <t>phavtt20@gmail.com</t>
   </si>
@@ -36,61 +62,37 @@
     <t>soyteangiang.jpg</t>
   </si>
   <si>
+    <t>sytangiang</t>
+  </si>
+  <si>
     <t>nvb@gmail.com</t>
   </si>
   <si>
     <t>trungtamytelongxuyen.jpg</t>
   </si>
   <si>
-    <t>tramytemyhoa.jpg</t>
+    <t>ttytlongxuyen</t>
+  </si>
+  <si>
+    <t>ltc@gmail.com</t>
   </si>
   <si>
     <t>tramytemylong.jpg</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Ảnh đại diện</t>
-  </si>
-  <si>
-    <t>Tên tài khoản</t>
-  </si>
-  <si>
-    <t>Mật khẩu</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã cán bộ</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>sytangiang</t>
-  </si>
-  <si>
-    <t>ttytlongxuyen</t>
-  </si>
-  <si>
-    <t>tytmyhoa</t>
-  </si>
-  <si>
     <t>tytmylong</t>
   </si>
   <si>
-    <t>ltc@gmail.com</t>
-  </si>
-  <si>
     <t>ltd@gmail.com</t>
+  </si>
+  <si>
+    <t>tytmybinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,40 +408,35 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -450,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -470,13 +467,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -490,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -510,10 +507,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -530,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -544,6 +541,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>